--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8400</v>
+        <v>9900</v>
       </c>
       <c r="E8" s="3">
         <v>8400</v>
@@ -727,22 +731,25 @@
         <v>8400</v>
       </c>
       <c r="G8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
-        <v>8000</v>
-      </c>
       <c r="I8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J8" s="3">
         <v>8100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>7900</v>
       </c>
       <c r="K8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>700</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
-        <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7700</v>
+        <v>9100</v>
       </c>
       <c r="E18" s="3">
         <v>7700</v>
       </c>
       <c r="F18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="I18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1052,31 @@
         <v>-4500</v>
       </c>
       <c r="E20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4300</v>
       </c>
       <c r="H20" s="3">
         <v>-4300</v>
       </c>
       <c r="I20" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
       </c>
       <c r="I24" s="3">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
       </c>
       <c r="K24" s="3">
+        <v>700</v>
+      </c>
+      <c r="L24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2300</v>
       </c>
       <c r="H26" s="3">
         <v>2300</v>
       </c>
       <c r="I26" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="J26" s="3">
         <v>2200</v>
       </c>
       <c r="K26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2300</v>
       </c>
       <c r="H27" s="3">
         <v>2300</v>
       </c>
       <c r="I27" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="J27" s="3">
         <v>2200</v>
       </c>
       <c r="K27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,17 +1328,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>4500</v>
       </c>
       <c r="E32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4300</v>
       </c>
       <c r="H32" s="3">
         <v>4300</v>
       </c>
       <c r="I32" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2300</v>
       </c>
       <c r="H33" s="3">
         <v>2300</v>
       </c>
       <c r="I33" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="J33" s="3">
         <v>2200</v>
       </c>
       <c r="K33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2300</v>
       </c>
       <c r="H35" s="3">
         <v>2300</v>
       </c>
       <c r="I35" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="J35" s="3">
         <v>2200</v>
       </c>
       <c r="K35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E41" s="3">
         <v>20000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+        <v>10100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+        <v>24200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>24800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E54" s="3">
         <v>843000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>826000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>826300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>818300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>819600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>809300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>807600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>22900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2102,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>958400</v>
+      </c>
+      <c r="E66" s="3">
         <v>734200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>717800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>719700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>714400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>717800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>705900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>704600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E76" s="3">
         <v>108900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>108200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>106600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>103900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>103400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>103000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2300</v>
       </c>
       <c r="H81" s="3">
         <v>2300</v>
       </c>
       <c r="I81" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="J81" s="3">
         <v>2200</v>
       </c>
       <c r="K81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8400</v>
       </c>
       <c r="F8" s="3">
         <v>8400</v>
@@ -734,22 +738,25 @@
         <v>8400</v>
       </c>
       <c r="H8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7900</v>
       </c>
       <c r="L8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7700</v>
       </c>
       <c r="F18" s="3">
         <v>7700</v>
       </c>
       <c r="G18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1055,28 +1089,31 @@
         <v>-4500</v>
       </c>
       <c r="F20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,31 +1226,34 @@
         <v>800</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
       </c>
       <c r="L24" s="3">
+        <v>700</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2200</v>
       </c>
       <c r="K26" s="3">
         <v>2200</v>
       </c>
       <c r="L26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2200</v>
       </c>
       <c r="K27" s="3">
         <v>2200</v>
       </c>
       <c r="L27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,20 +1389,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1439,60 +1509,66 @@
         <v>4500</v>
       </c>
       <c r="F32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2200</v>
       </c>
       <c r="K33" s="3">
         <v>2200</v>
       </c>
       <c r="L33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2200</v>
       </c>
       <c r="K35" s="3">
         <v>2200</v>
       </c>
       <c r="L35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E41" s="3">
         <v>62500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1949,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>10000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>24200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>24800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1092300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1093000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>843000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>826000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>826300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>818300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>819600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>809300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>807600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2233,11 +2376,11 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>22900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2245,19 +2388,22 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>15500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>953900</v>
+      </c>
+      <c r="E66" s="3">
         <v>958400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>734200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>717800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>719700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>714400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>717800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>705900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>704600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E76" s="3">
         <v>134500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>108900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>108200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>103900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>101800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>103400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>103000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2200</v>
       </c>
       <c r="K81" s="3">
         <v>2200</v>
       </c>
       <c r="L81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,118 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G8" s="3">
         <v>9800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>31800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8100</v>
       </c>
       <c r="L8" s="3">
         <v>7900</v>
       </c>
       <c r="M8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +810,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +854,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +960,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +1004,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1048,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1069,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9200</v>
+        <v>33400</v>
       </c>
       <c r="E18" s="3">
         <v>9100</v>
       </c>
       <c r="F18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>28800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1175,55 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-16800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1257,17 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1301,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2900</v>
       </c>
       <c r="L23" s="3">
         <v>3000</v>
       </c>
       <c r="M23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>900</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>800</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1433,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1565,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1403,18 +1585,18 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1427,8 +1609,17 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1697,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>16800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1829,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1964,55 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G41" s="3">
         <v>48100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>62500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>20000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>22400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>22300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>19500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>22100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>26700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +2046,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +2090,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2134,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2178,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2222,17 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2266,105 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>24200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>24800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2442,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2486,17 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2530,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1108600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1112400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1088100</v>
+      </c>
+      <c r="G54" s="3">
         <v>1092300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>1093000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>843000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>826000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>826300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>818300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>819600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>809300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>807600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2616,11 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2654,17 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2698,61 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2786,17 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,31 +2807,40 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>22900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>15500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2874,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +3006,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>984200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>972300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>947700</v>
+      </c>
+      <c r="G66" s="3">
         <v>953900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>958400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>734200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>717800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>719700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>714400</v>
       </c>
       <c r="J66" s="3">
         <v>717800</v>
       </c>
       <c r="K66" s="3">
+        <v>719700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>714400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>717800</v>
+      </c>
+      <c r="N66" s="3">
         <v>705900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>704600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +3244,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2767,8 +3288,17 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3420,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>140100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>140300</v>
+      </c>
+      <c r="G76" s="3">
         <v>138400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>134500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>108900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>108200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>106600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>103900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>101800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>103400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>103000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3508,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3625,11 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3663,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3883,17 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3277,8 +3927,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3951,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +4077,17 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +4121,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +4145,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +4183,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4315,17 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +4359,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4403,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38600</v>
+        <v>9500</v>
       </c>
       <c r="E8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F8" s="3">
         <v>9700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8400</v>
       </c>
       <c r="J8" s="3">
         <v>8400</v>
@@ -761,22 +765,25 @@
         <v>8400</v>
       </c>
       <c r="L8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M8" s="3">
         <v>7900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>7900</v>
       </c>
       <c r="P8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1098,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5200</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
@@ -1090,78 +1117,84 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>700</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33400</v>
+        <v>9100</v>
       </c>
       <c r="E18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7700</v>
       </c>
       <c r="J18" s="3">
         <v>7700</v>
       </c>
       <c r="K18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,22 +1211,23 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16800</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4500</v>
       </c>
       <c r="H20" s="3">
         <v>-4500</v>
@@ -1202,28 +1236,31 @@
         <v>-4500</v>
       </c>
       <c r="J20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16600</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
       </c>
       <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>800</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>700</v>
       </c>
       <c r="O24" s="3">
         <v>700</v>
       </c>
       <c r="P24" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E26" s="3">
         <v>3400</v>
       </c>
       <c r="F26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G26" s="3">
         <v>4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2200</v>
       </c>
       <c r="O26" s="3">
         <v>2200</v>
       </c>
       <c r="P26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E27" s="3">
         <v>3400</v>
       </c>
       <c r="F27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2200</v>
       </c>
       <c r="O27" s="3">
         <v>2200</v>
       </c>
       <c r="P27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1594,12 +1655,12 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,22 +1773,25 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16800</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4500</v>
       </c>
       <c r="H32" s="3">
         <v>4500</v>
@@ -1730,72 +1800,78 @@
         <v>4500</v>
       </c>
       <c r="J32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E33" s="3">
         <v>3400</v>
       </c>
       <c r="F33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2200</v>
       </c>
       <c r="O33" s="3">
         <v>2200</v>
       </c>
       <c r="P33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E35" s="3">
         <v>3400</v>
       </c>
       <c r="F35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2200</v>
       </c>
       <c r="O35" s="3">
         <v>2200</v>
       </c>
       <c r="P35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>10100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>10000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>22700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>24200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>24800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1109400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1108600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1112400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1088100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1092300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1093000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>843000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>826000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>826300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>818300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>819600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>809300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>807600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2816,11 +2959,11 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>22900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2828,19 +2971,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>15500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>996200</v>
+      </c>
+      <c r="E66" s="3">
         <v>984200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>972300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>947700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>953900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>958400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>734200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>717800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>719700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>714400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>717800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>705900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>704600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E76" s="3">
         <v>124400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>134500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>108900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>108200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>103900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>103400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>103000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13700</v>
+        <v>3300</v>
       </c>
       <c r="E81" s="3">
         <v>3400</v>
       </c>
       <c r="F81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2200</v>
       </c>
       <c r="O81" s="3">
         <v>2200</v>
       </c>
       <c r="P81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>8400</v>
       </c>
       <c r="K8" s="3">
         <v>8400</v>
@@ -768,22 +772,25 @@
         <v>8400</v>
       </c>
       <c r="M8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7900</v>
       </c>
       <c r="Q8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1138,7 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1120,81 +1147,87 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7700</v>
       </c>
       <c r="K18" s="3">
         <v>7700</v>
       </c>
       <c r="L18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,25 +1245,26 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4500</v>
       </c>
       <c r="I20" s="3">
         <v>-4500</v>
@@ -1239,28 +1273,31 @@
         <v>-4500</v>
       </c>
       <c r="K20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,60 +1393,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
@@ -1415,40 +1461,43 @@
         <v>700</v>
       </c>
       <c r="G24" s="3">
+        <v>700</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>800</v>
       </c>
       <c r="I24" s="3">
         <v>800</v>
       </c>
       <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>700</v>
       </c>
       <c r="P24" s="3">
         <v>700</v>
       </c>
       <c r="Q24" s="3">
+        <v>700</v>
+      </c>
+      <c r="R24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>3300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3400</v>
       </c>
       <c r="F26" s="3">
         <v>3400</v>
       </c>
       <c r="G26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2200</v>
       </c>
       <c r="P26" s="3">
         <v>2200</v>
       </c>
       <c r="Q26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3400</v>
       </c>
       <c r="F27" s="3">
         <v>3400</v>
       </c>
       <c r="G27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2200</v>
       </c>
       <c r="P27" s="3">
         <v>2200</v>
       </c>
       <c r="Q27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,12 +1719,12 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,25 +1843,28 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4500</v>
       </c>
       <c r="I32" s="3">
         <v>4500</v>
@@ -1803,75 +1873,81 @@
         <v>4500</v>
       </c>
       <c r="K32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3400</v>
       </c>
       <c r="F33" s="3">
         <v>3400</v>
       </c>
       <c r="G33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2200</v>
       </c>
       <c r="P33" s="3">
         <v>2200</v>
       </c>
       <c r="Q33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3400</v>
       </c>
       <c r="F35" s="3">
         <v>3400</v>
       </c>
       <c r="G35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2200</v>
       </c>
       <c r="P35" s="3">
         <v>2200</v>
       </c>
       <c r="Q35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,44 +2502,47 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>10400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>10100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>10000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2441,44 +2552,47 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>22700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>24200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>24800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1107800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1109400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1108600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1112400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1088100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1092300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1093000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>843000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>826000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>826300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>818300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>819600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>809300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>807600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2855,44 +2992,47 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2962,11 +3105,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>22900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2974,19 +3117,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>15500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E66" s="3">
         <v>996200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>984200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>972300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>947700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>953900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>958400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>734200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>717800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>719700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>714400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>717800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>705900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>704600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,31 +3598,34 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>113900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E76" s="3">
         <v>113100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>124400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>140300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>108900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>108200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>103900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>103400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>103000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>3400</v>
       </c>
       <c r="F81" s="3">
         <v>3400</v>
       </c>
       <c r="G81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2200</v>
       </c>
       <c r="P81" s="3">
         <v>2200</v>
       </c>
       <c r="Q81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,145 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>8400</v>
       </c>
       <c r="M8" s="3">
         <v>8400</v>
       </c>
       <c r="N8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P8" s="3">
         <v>7900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>31800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>700</v>
+      </c>
+      <c r="T17" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
-        <v>9100</v>
-      </c>
       <c r="F18" s="3">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="G18" s="3">
         <v>9100</v>
       </c>
       <c r="H18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>7300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>28800</v>
       </c>
       <c r="P18" s="3">
         <v>7300</v>
       </c>
       <c r="Q18" s="3">
+        <v>28800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S18" s="3">
         <v>7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-5000</v>
       </c>
       <c r="H20" s="3">
         <v>-4700</v>
       </c>
       <c r="I20" s="3">
-        <v>-4500</v>
+        <v>-5000</v>
       </c>
       <c r="J20" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="K20" s="3">
         <v>-4500</v>
       </c>
       <c r="L20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-16800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>700</v>
-      </c>
       <c r="F24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G24" s="3">
         <v>700</v>
       </c>
       <c r="H24" s="3">
+        <v>700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,15 +1843,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5000</v>
       </c>
       <c r="H32" s="3">
         <v>4700</v>
       </c>
       <c r="I32" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K32" s="3">
         <v>4500</v>
       </c>
       <c r="L32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>16800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2700</v>
       </c>
       <c r="M33" s="3">
         <v>2600</v>
       </c>
       <c r="N33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2700</v>
       </c>
       <c r="M35" s="3">
         <v>2600</v>
       </c>
       <c r="N35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>45800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>32300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>62500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>22400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>22300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>22100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>26700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2700,126 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>10100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>10100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>10000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>22500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>22700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>24200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>24800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1118800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1125800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1107800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1109400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1108600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1112400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1088100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1092300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1093000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>843000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>826000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>826300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>818300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>819600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>809300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>807600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,58 +3248,70 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="3">
+        <v>1200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3360,14 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3108,31 +3393,37 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>22900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>15500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1003400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1016700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1002000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>996200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>984200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>972300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>947700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>953900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>958400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>734200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>717800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>719700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>714400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>717800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>705900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>704600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,20 +3942,26 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>116200</v>
+      </c>
+      <c r="F72" s="3">
         <v>113900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3627,11 +3974,11 @@
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -3651,8 +3998,14 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>109100</v>
+      </c>
+      <c r="F76" s="3">
         <v>105700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>113100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>124400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>140100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>140300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>138400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>134500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>108900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>108200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>106600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>103900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>101800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>103400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>103000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2700</v>
       </c>
       <c r="M81" s="3">
         <v>2600</v>
       </c>
       <c r="N81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,125 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E8" s="3">
         <v>11300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>8400</v>
       </c>
       <c r="N8" s="3">
         <v>8400</v>
@@ -788,22 +792,25 @@
         <v>8400</v>
       </c>
       <c r="P8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>7900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>7900</v>
       </c>
       <c r="T8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1205,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1200,7 +1227,7 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
@@ -1209,90 +1236,96 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9800</v>
       </c>
       <c r="F18" s="3">
         <v>9800</v>
       </c>
       <c r="G18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>7700</v>
       </c>
       <c r="N18" s="3">
         <v>7700</v>
       </c>
       <c r="O18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="P18" s="3">
         <v>7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,34 +1346,35 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-4500</v>
       </c>
       <c r="L20" s="3">
         <v>-4500</v>
@@ -1349,28 +1383,31 @@
         <v>-4500</v>
       </c>
       <c r="N20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,13 +1592,13 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
@@ -1561,40 +1607,43 @@
         <v>700</v>
       </c>
       <c r="J24" s="3">
+        <v>700</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>800</v>
       </c>
       <c r="L24" s="3">
         <v>800</v>
       </c>
       <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>700</v>
       </c>
       <c r="S24" s="3">
         <v>700</v>
       </c>
       <c r="T24" s="3">
+        <v>700</v>
+      </c>
+      <c r="U24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>3400</v>
       </c>
       <c r="I26" s="3">
         <v>3400</v>
       </c>
       <c r="J26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2200</v>
       </c>
       <c r="S26" s="3">
         <v>2200</v>
       </c>
       <c r="T26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3400</v>
       </c>
       <c r="I27" s="3">
         <v>3400</v>
       </c>
       <c r="J27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2200</v>
       </c>
       <c r="S27" s="3">
         <v>2200</v>
       </c>
       <c r="T27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1849,12 +1910,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,34 +2052,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>4500</v>
       </c>
       <c r="L32" s="3">
         <v>4500</v>
@@ -2021,84 +2091,90 @@
         <v>4500</v>
       </c>
       <c r="N32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3400</v>
       </c>
       <c r="I33" s="3">
         <v>3400</v>
       </c>
       <c r="J33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2200</v>
       </c>
       <c r="S33" s="3">
         <v>2200</v>
       </c>
       <c r="T33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3400</v>
       </c>
       <c r="I35" s="3">
         <v>3400</v>
       </c>
       <c r="J35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>2200</v>
       </c>
       <c r="S35" s="3">
         <v>2200</v>
       </c>
       <c r="T35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E41" s="3">
         <v>20700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>10100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>10000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>22500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>22700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>24200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>24800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1119900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1118800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1125800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1107800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1109400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1108600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1112400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1088100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1092300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1093000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>843000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>826000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>826300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>818300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>819600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>809300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>807600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3388,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3399,11 +3542,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>22900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3411,19 +3554,22 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>15500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1004800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1003400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1016700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1002000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>996200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>984200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>972300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>947700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>953900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>958400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>734200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>717800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>719700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>714400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>717800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>705900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>704600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,23 +4119,26 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E72" s="3">
         <v>117800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>113900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3980,8 +4154,8 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E76" s="3">
         <v>115400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>109100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>124400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>140100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>140300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>138400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>134500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>108200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>106600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>103900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>103400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>103000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3400</v>
       </c>
       <c r="I81" s="3">
         <v>3400</v>
       </c>
       <c r="J81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>2200</v>
       </c>
       <c r="S81" s="3">
         <v>2200</v>
       </c>
       <c r="T81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CHBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>CHBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E8" s="3">
         <v>11600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>8400</v>
       </c>
       <c r="O8" s="3">
         <v>8400</v>
@@ -795,22 +799,25 @@
         <v>8400</v>
       </c>
       <c r="Q8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R8" s="3">
         <v>7900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>7900</v>
       </c>
       <c r="U8" s="3">
         <v>7900</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,22 +1232,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1230,7 +1257,7 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1239,34 +1266,37 @@
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>700</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>9000</v>
       </c>
       <c r="E18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>9800</v>
       </c>
       <c r="G18" s="3">
         <v>9800</v>
       </c>
       <c r="H18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>7700</v>
       </c>
       <c r="O18" s="3">
         <v>7700</v>
       </c>
       <c r="P18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q18" s="3">
         <v>7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,37 +1380,38 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4500</v>
       </c>
       <c r="M20" s="3">
         <v>-4500</v>
@@ -1386,28 +1420,31 @@
         <v>-4500</v>
       </c>
       <c r="O20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,13 +1641,13 @@
         <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I24" s="3">
         <v>700</v>
@@ -1610,40 +1656,43 @@
         <v>700</v>
       </c>
       <c r="K24" s="3">
+        <v>700</v>
+      </c>
+      <c r="L24" s="3">
         <v>900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>800</v>
       </c>
       <c r="M24" s="3">
         <v>800</v>
       </c>
       <c r="N24" s="3">
+        <v>800</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
-      </c>
-      <c r="S24" s="3">
-        <v>700</v>
       </c>
       <c r="T24" s="3">
         <v>700</v>
       </c>
       <c r="U24" s="3">
+        <v>700</v>
+      </c>
+      <c r="V24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3400</v>
       </c>
       <c r="J26" s="3">
         <v>3400</v>
       </c>
       <c r="K26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>9100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>2200</v>
       </c>
       <c r="T26" s="3">
         <v>2200</v>
       </c>
       <c r="U26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V26" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>3400</v>
       </c>
       <c r="J27" s="3">
         <v>3400</v>
       </c>
       <c r="K27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>2200</v>
       </c>
       <c r="T27" s="3">
         <v>2200</v>
       </c>
       <c r="U27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1913,12 +1974,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,37 +2122,40 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4500</v>
       </c>
       <c r="M32" s="3">
         <v>4500</v>
@@ -2094,87 +2164,93 @@
         <v>4500</v>
       </c>
       <c r="O32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3400</v>
       </c>
       <c r="J33" s="3">
         <v>3400</v>
       </c>
       <c r="K33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2200</v>
       </c>
       <c r="T33" s="3">
         <v>2200</v>
       </c>
       <c r="U33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V33" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>3400</v>
       </c>
       <c r="J35" s="3">
         <v>3400</v>
       </c>
       <c r="K35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>2200</v>
       </c>
       <c r="T35" s="3">
         <v>2200</v>
       </c>
       <c r="U35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V35" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E41" s="3">
         <v>22200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,56 +2933,59 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>10400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>10100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>10000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,56 +2995,59 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>22500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>22700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>24200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>24800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1094500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1119900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1118800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1125800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1107800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1109400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1108600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1112400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1088100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1092300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1093000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>843000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>826000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>826300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>818300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>819600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>809300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>807600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>793400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,56 +3539,59 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3545,11 +3688,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>22900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3557,19 +3700,22 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>15500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>985100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1004800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1003400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1016700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1002000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>996200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>984200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>972300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>947700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>953900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>958400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>734200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>717800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>719700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>714400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>717800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>705900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>704600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>692800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,26 +4293,29 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E72" s="3">
         <v>119500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>117800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>113900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -4157,8 +4331,8 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E76" s="3">
         <v>115100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>109100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>105700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>124400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>140100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>138400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>134500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>108900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>108200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>106600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>103900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>103400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>103000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>100500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>3400</v>
       </c>
       <c r="J81" s="3">
         <v>3400</v>
       </c>
       <c r="K81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>2200</v>
       </c>
       <c r="T81" s="3">
         <v>2200</v>
       </c>
       <c r="U81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V81" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
